--- a/LogReceptions.xlsx
+++ b/LogReceptions.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G648"/>
+  <dimension ref="A1:G676"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
       <selection activeCell="L479" sqref="L479"/>
@@ -17664,6 +17664,785 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Алтымышева Гульзина Шакировна</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>0</v>
+      </c>
+      <c r="D649" t="n">
+        <v>4</v>
+      </c>
+      <c r="E649" t="n">
+        <v>600</v>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>мбанк 550778710 Жоомарт</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Аттокурова Айгерим Эрнестовна</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0</v>
+      </c>
+      <c r="E650" t="n">
+        <v>600</v>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>мбанк 709369973</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Жораев Фазлидин Каримжонович</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0</v>
+      </c>
+      <c r="E651" t="n">
+        <v>300</v>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>мбанк 550696096</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>Токтомаматов</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Жусупов Нуртилек Абдразакович</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>0</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>месяц</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>мбанк 501088087</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Калиева Рахат Сатыбалдиевна</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>0</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2</v>
+      </c>
+      <c r="E653" t="n">
+        <v>300</v>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>элсом 705205012</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>Жумабаев</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Каюмов Рузимухаммад Абдилахатович</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0</v>
+      </c>
+      <c r="E654" t="n">
+        <v>600</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>элкарт 9417089010185453</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Конокбекова Сезим Конокбековна</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1</v>
+      </c>
+      <c r="E655" t="n">
+        <v>450</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>мбанк 550247744</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>Исакова</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Нышанова Айпери Абдувахаповна</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>2</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0</v>
+      </c>
+      <c r="E656" t="n">
+        <v>600</v>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>мбанк 700523004</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Таанышбекова Айгерим Таанышбековна</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0</v>
+      </c>
+      <c r="E657" t="n">
+        <v>300</v>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>мбанк 557116773</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Токтоболотов Жанышбек Абдылдаевич</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0</v>
+      </c>
+      <c r="E658" t="n">
+        <v>300</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>мбанк 551558155</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>Токтомаматов</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Токтомаматов Уланбек Мамарасулович</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1</v>
+      </c>
+      <c r="D659" t="n">
+        <v>2</v>
+      </c>
+      <c r="E659" t="n">
+        <v>600</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>мбанк 555833983</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Умарова Бегимай Махамаджановна</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>2</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0</v>
+      </c>
+      <c r="E660" t="n">
+        <v>600</v>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>элкарт 9417089070391223</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Хаджикулова Надирабегим Сабиржановна</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>2</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0</v>
+      </c>
+      <c r="E661" t="n">
+        <v>600</v>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>мбанк 551848080</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Чинбердиева Акмоор Абдусаламовна</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>2</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0</v>
+      </c>
+      <c r="E662" t="n">
+        <v>600</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>мбанк 550777798</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>Токтомаматов</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Шералиев Умарали Ашурович</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>3</v>
+      </c>
+      <c r="D663" t="n">
+        <v>2</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>месяц</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>мбанк 771139004</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Эльдиярова Алтынкыз</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0</v>
+      </c>
+      <c r="E664" t="n">
+        <v>300</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>мбанк 709443195</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Эргешова Гулкайыр</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>6</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>мбанк 504204304</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>Токтомаматов</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Алтымышева Гульзина Шакировна</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>4</v>
+      </c>
+      <c r="D666" t="n">
+        <v>2</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>мбанк 550778710 Жоомарт</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Закирова Айгерим Канатбековна</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>месяц</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>мбанк 550479647</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Конокбекова Сезим Конокбековна</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0</v>
+      </c>
+      <c r="E668" t="n">
+        <v>300</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>мбанк 550247744</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>Исакова</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Наркулова Гулнара Оросбековна</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>1</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0</v>
+      </c>
+      <c r="E669" t="n">
+        <v>300</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>мбанк 555621331</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Рахматуллаева Гульнара Жалалидиновна</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>месяц</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>мбанк 555424221</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Хаджикулова Надирабегим Сабиржановна</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0</v>
+      </c>
+      <c r="E671" t="n">
+        <v>300</v>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>мбанк 551848080</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Шералиев Умарали Ашурович</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>месяц</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>мбанк 771139004</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Эльдиярова Алтынкыз</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0</v>
+      </c>
+      <c r="E673" t="n">
+        <v>300</v>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>мбанк 709443195</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Эргешова Гулкайыр</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>0</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1</v>
+      </c>
+      <c r="E674" t="n">
+        <v>150</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>мбанк 504204304</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>Токтомаматов</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2023-11-19</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Наркулова Гулнара Оросбековна</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>1</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0</v>
+      </c>
+      <c r="E675" t="n">
+        <v>300</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>мбанк 555621331</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>----------</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F141"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
